--- a/cw_data/RDS_20200319/MouseList_cw.xlsx
+++ b/cw_data/RDS_20200319/MouseList_cw.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D283A46-110F-2C4A-9FD1-5CF1181A8431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,26 +412,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -464,7 +464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -490,7 +490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -516,7 +516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -544,7 +544,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
